--- a/exampleExcel.xlsx
+++ b/exampleExcel.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hortowe/Documents/GitHub/cl_gitTutorial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13FD7AB7-7DB4-BC45-8FFD-2A9E366AA38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D16937-3266-E540-9207-B3F7F8CC668E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45620" yWindow="-12300" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{377E7B18-F54A-E447-8142-898911118799}"/>
+    <workbookView xWindow="-45620" yWindow="-12300" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{377E7B18-F54A-E447-8142-898911118799}"/>
   </bookViews>
   <sheets>
     <sheet name="MHC" sheetId="1" r:id="rId1"/>
     <sheet name="senescence" sheetId="2" r:id="rId2"/>
+    <sheet name="dormancy" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>H2-Ab</t>
   </si>
@@ -72,6 +73,24 @@
   </si>
   <si>
     <t>Lamin B</t>
+  </si>
+  <si>
+    <t>AMOT</t>
+  </si>
+  <si>
+    <t>TGFB2</t>
+  </si>
+  <si>
+    <t>IGFBP5</t>
+  </si>
+  <si>
+    <t>MSK1</t>
+  </si>
+  <si>
+    <t>THBS1</t>
+  </si>
+  <si>
+    <t>LIFR</t>
   </si>
 </sst>
 </file>
@@ -102,7 +121,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +132,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -137,11 +162,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,7 +539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BEC0BB-AA19-EA40-9C00-4F2FD3E04265}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -542,4 +568,49 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4016E9A-FC42-8E4C-B64F-59E269C7DF41}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/exampleExcel.xlsx
+++ b/exampleExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hortowe/Documents/GitHub/cl_gitTutorial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D16937-3266-E540-9207-B3F7F8CC668E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BA6110-4E80-F944-BA1E-9F64AE69CB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45620" yWindow="-12300" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{377E7B18-F54A-E447-8142-898911118799}"/>
+    <workbookView xWindow="-45620" yWindow="-12300" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{377E7B18-F54A-E447-8142-898911118799}"/>
   </bookViews>
   <sheets>
     <sheet name="MHC" sheetId="1" r:id="rId1"/>
@@ -121,24 +121,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -166,8 +154,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BEC0BB-AA19-EA40-9C00-4F2FD3E04265}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -561,7 +549,7 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -574,39 +562,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4016E9A-FC42-8E4C-B64F-59E269C7DF41}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
